--- a/biology/Botanique/Valerianaceae/Valerianaceae.xlsx
+++ b/biology/Botanique/Valerianaceae/Valerianaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Valérianacées sont une famille de plantes dicotylédones de l'ordre des Dipsacales qui comprenait plus de 300 espèces réparties en 15 genres.
 Ce sont des plantes herbacées, quelquefois des arbustes des zones tempérées à tropicales sauf l'Afrique, Madagascar et l'Asie australe.
@@ -513,11 +525,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nom vient du genre Valeriana qui, selon Théis : 
-« (serait), selon Linné, (dérivé) d'un roi nommé Valère qui s'en servit le premier. Comme cette assertion n'est appuyée sur aucune autorité, il est plus naturel de croire que valere, signifiant, en latin, se bien porter, on aura donné ce nom à une plante très renommée en médecine[1]. »
+« (serait), selon Linné, (dérivé) d'un roi nommé Valère qui s'en servit le premier. Comme cette assertion n'est appuyée sur aucune autorité, il est plus naturel de croire que valere, signifiant, en latin, se bien porter, on aura donné ce nom à une plante très renommée en médecine. »
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] suggère, optionnellement, d'inclure toutes les plantes de cette famille dans les Caprifoliacées sensu lato.
-En classification phylogénétique APG III (2009)[3] cette famille est invalide et ses genres sont incorporés dans la famille Caprifoliaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) suggère, optionnellement, d'inclure toutes les plantes de cette famille dans les Caprifoliacées sensu lato.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Caprifoliaceae.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (17 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (17 mai 2010) :
 Aligera Suksd.
 Aretiastrum (DC.) Spach
 Astrephia Dufr.
@@ -623,7 +641,9 @@
           <t>Quelques représentants plus connus de cette famille</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Centranthus
 Centranthus ruber : Centranthe rouge, Valériane rouge ou Lilas d'Espagne
